--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1115718.641708927</v>
+        <v>-1118598.969868931</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10036405.55371382</v>
+        <v>10036405.55371387</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>261.7210098383949</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>119.9059267087986</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.5623709710783</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>74.53436060286468</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>77.72878559814586</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.5248721840098</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>265.9588718996445</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>110.92720347361</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>33.84234274505295</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>75.99191941435336</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>242.4059047968452</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>136.9481251131643</v>
+        <v>131.8808934717672</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081792</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561458</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T12" t="n">
         <v>188.3907690366107</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>55.16198843063295</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1582,7 +1582,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>2.429801689245348</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081974</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561458</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T15" t="n">
         <v>188.3907690366107</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>5.313812950980709</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>105.0459846099754</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440909</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045448</v>
+        <v>283.563092004544</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060082077</v>
+        <v>84.61259060081895</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374744</v>
+        <v>199.197056837474</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376698</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561482</v>
+        <v>84.0240632056144</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952167</v>
+        <v>117.4255876952159</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366108</v>
+        <v>188.3907690366106</v>
       </c>
       <c r="U18" t="n">
         <v>225.7492064608734</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>5.313812950965852</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919538</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440862</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108297</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584594</v>
+        <v>42.6340312049464</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627619</v>
+        <v>217.4819944627617</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045445</v>
+        <v>283.563092004544</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081998</v>
+        <v>84.61259060081895</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.197056837474</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561464</v>
+        <v>84.0240632056144</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952159</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3907690366106</v>
       </c>
       <c r="U21" t="n">
         <v>225.7492064608734</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>83.55410938282867</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108389</v>
+        <v>17.91582343701266</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4819944627617</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045445</v>
+        <v>283.563092004544</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081998</v>
+        <v>84.61259060081895</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374742</v>
+        <v>199.197056837474</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561464</v>
+        <v>84.0240632056144</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952159</v>
       </c>
       <c r="T24" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3907690366106</v>
       </c>
       <c r="U24" t="n">
         <v>225.7492064608734</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>105.3798824585252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108389</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584591</v>
+        <v>21.11024843229377</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4819944627617</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>163.3542162903876</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898985</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1073.058407761439</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>704.0958908210278</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>704.0958908210278</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>318.3076382227836</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2576.031993332567</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2223.263338062453</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1849.797579801373</v>
       </c>
       <c r="Y2" t="n">
-        <v>2535.974978926224</v>
+        <v>1459.658247825561</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>129.230214752551</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>649.6150593598222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>421.6255084618049</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1600.02316032828</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1214.234907730036</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>803.249002940428</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.366513095501</v>
+        <v>1958.28885893503</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6471865296039</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6471865296039</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6471865296039</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6471865296039</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6471865296039</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6471865296039</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6471865296039</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6471865296039</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1408.137349737077</v>
+        <v>877.172715966034</v>
       </c>
       <c r="C8" t="n">
-        <v>1408.137349737077</v>
+        <v>877.172715966034</v>
       </c>
       <c r="D8" t="n">
-        <v>1408.137349737077</v>
+        <v>877.172715966034</v>
       </c>
       <c r="E8" t="n">
-        <v>1022.349097138832</v>
+        <v>877.172715966034</v>
       </c>
       <c r="F8" t="n">
-        <v>611.3631923492248</v>
+        <v>466.1868111764265</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>452.2634071150174</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.737189801198</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1794.737189801198</v>
+        <v>877.172715966034</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084169</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C10" t="n">
-        <v>500.1394333084169</v>
+        <v>344.90437809669</v>
       </c>
       <c r="D10" t="n">
-        <v>350.0227938960811</v>
+        <v>344.90437809669</v>
       </c>
       <c r="E10" t="n">
-        <v>350.0227938960811</v>
+        <v>344.90437809669</v>
       </c>
       <c r="F10" t="n">
-        <v>350.0227938960811</v>
+        <v>344.90437809669</v>
       </c>
       <c r="G10" t="n">
         <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284209</v>
@@ -5027,61 +5027,61 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G11" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160721</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507196</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384009</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944175</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883211</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800317</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.44548561026</v>
+        <v>3603.645964259454</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297608</v>
+        <v>4151.951912946802</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403615</v>
+        <v>4515.534099052808</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.861033895493</v>
@@ -5112,31 +5112,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="K12" t="n">
-        <v>424.3570907149658</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="L12" t="n">
-        <v>424.3570907149658</v>
+        <v>142.676769632788</v>
       </c>
       <c r="M12" t="n">
-        <v>965.2563978701601</v>
+        <v>734.6951238849149</v>
       </c>
       <c r="N12" t="n">
-        <v>1587.352361269496</v>
+        <v>1356.79108728425</v>
       </c>
       <c r="O12" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.5769285337228</v>
+        <v>728.0284588996639</v>
       </c>
       <c r="C13" t="n">
-        <v>680.6407456058159</v>
+        <v>559.092275971757</v>
       </c>
       <c r="D13" t="n">
-        <v>530.5241061934802</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E13" t="n">
-        <v>382.6110126110871</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F13" t="n">
-        <v>235.7210651131767</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G13" t="n">
-        <v>235.7210651131767</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117242</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948581</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946053</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782257</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335695</v>
+        <v>2373.69331910273</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.242309074625</v>
+        <v>2190.52312884166</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.563526789007</v>
+        <v>1970.844346556042</v>
       </c>
       <c r="U13" t="n">
-        <v>2024.109181648355</v>
+        <v>1681.768132870769</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.424693442468</v>
+        <v>1427.083644664882</v>
       </c>
       <c r="W13" t="n">
-        <v>1480.007523405507</v>
+        <v>1137.666474627921</v>
       </c>
       <c r="X13" t="n">
-        <v>1252.01797250749</v>
+        <v>909.6769237299036</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.225393363962</v>
+        <v>909.6769237299036</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
         <v>1949.298676890959</v>
@@ -5261,67 +5261,67 @@
         <v>1591.032978284209</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160731</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507196</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384009</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944175</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883205</v>
+        <v>2234.298471234016</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800308</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.95191294679</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.534099052795</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746067</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402496</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132382</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871302</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5331,61 +5331,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C15" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D15" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E15" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034527</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160706</v>
+        <v>572.005072466811</v>
       </c>
       <c r="L15" t="n">
-        <v>142.6767696327952</v>
+        <v>689.5532446329818</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849206</v>
+        <v>1281.571598885109</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284254</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284447</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.251080710521</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S15" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U15" t="n">
         <v>2016.877442379908</v>
@@ -5397,7 +5397,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y15" t="n">
         <v>1111.876178449477</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.9550599890908</v>
+        <v>744.6035248193363</v>
       </c>
       <c r="C16" t="n">
-        <v>394.018877061184</v>
+        <v>744.6035248193363</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6513892319105</v>
+        <v>744.6035248193363</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7382956495174</v>
+        <v>596.6904312369431</v>
       </c>
       <c r="F16" t="n">
-        <v>93.84834815160706</v>
+        <v>449.8004837390328</v>
       </c>
       <c r="G16" t="n">
-        <v>93.84834815160706</v>
+        <v>282.5862889136116</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117242</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948581</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946053</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782257</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="S16" t="n">
-        <v>2246.242309074617</v>
+        <v>2246.242309074622</v>
       </c>
       <c r="T16" t="n">
-        <v>2026.563526788999</v>
+        <v>2026.563526789005</v>
       </c>
       <c r="U16" t="n">
-        <v>1737.487313103726</v>
+        <v>1737.487313103731</v>
       </c>
       <c r="V16" t="n">
-        <v>1482.802824897839</v>
+        <v>1482.802824897844</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.385654860878</v>
+        <v>1193.385654860884</v>
       </c>
       <c r="X16" t="n">
-        <v>965.3961039628607</v>
+        <v>965.3961039628664</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.6035248193306</v>
+        <v>744.6035248193363</v>
       </c>
     </row>
     <row r="17">
@@ -5492,52 +5492,52 @@
         <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127635</v>
+        <v>380.2757138127626</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160515</v>
+        <v>93.84834815160814</v>
       </c>
       <c r="J17" t="n">
-        <v>373.344223650714</v>
+        <v>373.3442236507236</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074383895</v>
+        <v>842.9746074384093</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909295018</v>
+        <v>1462.494387944189</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234047</v>
+        <v>2183.498949883231</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151145</v>
+        <v>2920.783927800343</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610275</v>
+        <v>3603.645964259486</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297616</v>
+        <v>4151.951912946839</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403617</v>
+        <v>4566.33362040361</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S17" t="n">
         <v>4606.950144347199</v>
@@ -5546,16 +5546,16 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.861033895492</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294091</v>
+        <v>943.6608414294084</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482821</v>
+        <v>769.2078121482814</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870308</v>
+        <v>620.2734024870301</v>
       </c>
       <c r="E18" t="n">
-        <v>461.0359474815752</v>
+        <v>461.0359474815747</v>
       </c>
       <c r="F18" t="n">
-        <v>314.5013895084602</v>
+        <v>314.5013895084596</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683897</v>
+        <v>178.7211392683892</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="K18" t="n">
-        <v>424.3570907149616</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="L18" t="n">
-        <v>915.0894235587073</v>
+        <v>142.6767696327677</v>
       </c>
       <c r="M18" t="n">
-        <v>1507.107777810828</v>
+        <v>734.6951238848993</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.203741210158</v>
+        <v>1356.79108728424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.812354695768</v>
+        <v>1903.667562284438</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695768</v>
+        <v>2323.251080710517</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695768</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695768</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.877442379908</v>
+        <v>2016.877442379907</v>
       </c>
       <c r="V18" t="n">
         <v>1781.725334148165</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.487977419964</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.876178449477</v>
+        <v>1111.876178449476</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.9550599890758</v>
+        <v>635.2012272238892</v>
       </c>
       <c r="C19" t="n">
-        <v>394.018877061169</v>
+        <v>466.2650442959823</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6513892319105</v>
+        <v>466.2650442959823</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7382956495174</v>
+        <v>318.3519507135892</v>
       </c>
       <c r="F19" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135892</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135892</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520198</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411594</v>
+        <v>172.8304710411618</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117205</v>
+        <v>432.4591980117271</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948514</v>
+        <v>820.2210160948632</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139307</v>
+        <v>1239.450608139325</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931011</v>
+        <v>1654.146473931034</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946037</v>
+        <v>2021.168930946065</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782239</v>
+        <v>2311.699365782271</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335672</v>
+        <v>2429.412499335708</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335672</v>
+        <v>2361.55315429421</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.242309074602</v>
+        <v>2318.488476309416</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.563526788984</v>
+        <v>2098.809694023797</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.487313103711</v>
+        <v>1809.733480338524</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.802824897824</v>
+        <v>1555.048992132637</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.385654860863</v>
+        <v>1265.631822095676</v>
       </c>
       <c r="X19" t="n">
-        <v>965.3961039628457</v>
+        <v>1037.642271197659</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.6035248193156</v>
+        <v>816.8496920541289</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963567</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127626</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160642</v>
+        <v>93.84834815160814</v>
       </c>
       <c r="J20" t="n">
-        <v>373.344223650718</v>
+        <v>373.3442236507236</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074383979</v>
+        <v>842.9746074384093</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.49438794417</v>
+        <v>1462.494387944189</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883231</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.783927800343</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610264</v>
+        <v>3603.645964259486</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.75143429761</v>
+        <v>4151.951912946839</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403615</v>
+        <v>4515.534099052849</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294084</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482814</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870301</v>
       </c>
       <c r="E21" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815747</v>
       </c>
       <c r="F21" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084596</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683892</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="L21" t="n">
-        <v>584.5806809953565</v>
+        <v>142.6767696327677</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.599035247482</v>
+        <v>734.6951238848993</v>
       </c>
       <c r="N21" t="n">
-        <v>1798.694998646816</v>
+        <v>1356.79108728424</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.571473647009</v>
+        <v>1903.667562284438</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695767</v>
+        <v>2323.251080710517</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.877442379908</v>
+        <v>2016.877442379907</v>
       </c>
       <c r="V21" t="n">
         <v>1781.725334148165</v>
@@ -5871,10 +5871,10 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.876178449477</v>
+        <v>1111.876178449476</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149475926</v>
+        <v>728.0284588996639</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196857</v>
+        <v>559.092275971757</v>
       </c>
       <c r="D22" t="n">
-        <v>326.1595320196857</v>
+        <v>408.9756365594212</v>
       </c>
       <c r="E22" t="n">
-        <v>178.2464384372926</v>
+        <v>261.0625429770281</v>
       </c>
       <c r="F22" t="n">
-        <v>178.2464384372926</v>
+        <v>261.0625429770281</v>
       </c>
       <c r="G22" t="n">
-        <v>178.2464384372926</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411605</v>
+        <v>172.8304710411618</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117233</v>
+        <v>432.4591980117271</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948564</v>
+        <v>820.2210160948632</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139315</v>
+        <v>1239.450608139325</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931034</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946065</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782253</v>
+        <v>2311.699365782271</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335708</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294189</v>
+        <v>2411.31570798519</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033119</v>
+        <v>2411.31570798519</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747501</v>
+        <v>2191.636925699572</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062227</v>
+        <v>1902.560712014299</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.94347985634</v>
+        <v>1647.876223808412</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.52630981938</v>
+        <v>1358.459053771451</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213624</v>
+        <v>1130.469502873434</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778323</v>
+        <v>909.6769237299036</v>
       </c>
     </row>
     <row r="23">
@@ -5963,58 +5963,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963567</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160642</v>
+        <v>93.84834815160814</v>
       </c>
       <c r="J23" t="n">
-        <v>373.344223650718</v>
+        <v>373.3442236507236</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074383979</v>
+        <v>893.7741287891708</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.49438794417</v>
+        <v>1513.29390929495</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883205</v>
+        <v>2234.298471233993</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151129</v>
+        <v>2971.583449151105</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610264</v>
+        <v>3654.445485610248</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.75143429761</v>
+        <v>4202.7514342976</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.33362040361</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
@@ -6023,7 +6023,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W23" t="n">
         <v>3468.466124132384</v>
@@ -6032,7 +6032,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="24">
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294084</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482814</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870301</v>
       </c>
       <c r="E24" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815747</v>
       </c>
       <c r="F24" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084596</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683892</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034544</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668096</v>
+        <v>241.4963299034544</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310559</v>
+        <v>732.2286627472091</v>
       </c>
       <c r="M24" t="n">
-        <v>1654.755759562685</v>
+        <v>1324.247016999341</v>
       </c>
       <c r="N24" t="n">
-        <v>2276.851722962019</v>
+        <v>1946.342980398681</v>
       </c>
       <c r="O24" t="n">
-        <v>2276.851722962019</v>
+        <v>2493.219455398879</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710521</v>
+        <v>2493.219455398879</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.877442379908</v>
+        <v>2016.877442379907</v>
       </c>
       <c r="V24" t="n">
         <v>1781.725334148165</v>
@@ -6108,10 +6108,10 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.876178449477</v>
+        <v>1111.876178449476</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149475926</v>
+        <v>724.8017669852385</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6513892319105</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6513892319105</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7382956495174</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F25" t="n">
-        <v>93.84834815160704</v>
+        <v>261.0625429770281</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411605</v>
+        <v>172.8304710411618</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117233</v>
+        <v>432.4591980117271</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948564</v>
+        <v>820.2210160948632</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139315</v>
+        <v>1239.450608139325</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931034</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946065</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782253</v>
+        <v>2311.699365782271</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335708</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294189</v>
+        <v>2429.412499335708</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033119</v>
+        <v>2408.089016070765</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747501</v>
+        <v>2188.410233785146</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062227</v>
+        <v>1899.334020099873</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.94347985634</v>
+        <v>1644.649531893986</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.52630981938</v>
+        <v>1355.232361857026</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213624</v>
+        <v>1127.242810959008</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778323</v>
+        <v>906.4502318154782</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6306,19 +6306,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6364,19 +6364,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,13 +6549,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,7 +6941,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
         <v>776.1751066403293</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7126,10 +7126,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,16 +7491,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
         <v>898.265941231132</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7786,31 +7786,31 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>51.31264782909307</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>51.31264782909486</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>51.31264782909523</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782911214</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>51.31264782915321</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>51.31264782905174</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>51.31264782911171</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782905129</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>51.31264782905208</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>51.31264782911171</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>145.1550359033165</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22601,19 +22601,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.04943860487022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440534</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>12.01876316045072</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>283.7556498591751</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>143.3016600672316</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.453989791954</v>
+        <v>35.40800518197847</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108366</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>143.3016600672465</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.542052877167</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919541</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.8045767444097</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108457</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.7044571535124</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>56.8998804091253</v>
+        <v>140.4539897919538</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440862</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>49.26492815407031</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.3384883584587</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>61.8669386401026</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919538</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440862</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108297</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>160.228239926165</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1097978.548309759</v>
+        <v>1097978.548309756</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152848.5021977674</v>
+        <v>152848.502197767</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
@@ -26320,37 +26320,37 @@
         <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
+        <v>181503.6698516757</v>
+      </c>
+      <c r="F2" t="n">
+        <v>181503.6698516758</v>
+      </c>
+      <c r="G2" t="n">
+        <v>181503.6698516758</v>
+      </c>
+      <c r="H2" t="n">
         <v>181503.6698516759</v>
       </c>
-      <c r="F2" t="n">
-        <v>181503.6698516757</v>
-      </c>
-      <c r="G2" t="n">
-        <v>181503.6698516757</v>
-      </c>
-      <c r="H2" t="n">
-        <v>181503.6698516757</v>
-      </c>
       <c r="I2" t="n">
-        <v>181503.6698516757</v>
+        <v>181503.6698516759</v>
       </c>
       <c r="J2" t="n">
         <v>181607.9849302514</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302512</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="M2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="N2" t="n">
         <v>184734.3982194636</v>
       </c>
-      <c r="M2" t="n">
-        <v>184734.3982194635</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>184734.3982194637</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194637</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545123</v>
+        <v>936509.6654545113</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.568408261276393e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.697416098109292e-09</v>
+        <v>6.717642918374623e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>6.441759751396603e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792253</v>
+        <v>183669.0093792171</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901373</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120178.1964869551</v>
+        <v>120178.196486954</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855145</v>
+        <v>5781.971894855221</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855216</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855982</v>
+        <v>5781.971894854611</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855405</v>
+        <v>5781.971894854563</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855405</v>
+        <v>5781.971894854574</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670462</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476394</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="N4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476393</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572383</v>
+        <v>100930.0394572387</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572387</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572387</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-640156.6515671415</v>
+        <v>-640510.9393007152</v>
       </c>
       <c r="C6" t="n">
-        <v>-99189.18577167729</v>
+        <v>-99189.18577167735</v>
       </c>
       <c r="D6" t="n">
-        <v>-99189.18577167738</v>
+        <v>-99189.18577167741</v>
       </c>
       <c r="E6" t="n">
-        <v>-861718.0069549303</v>
+        <v>-861753.9039367937</v>
       </c>
       <c r="F6" t="n">
-        <v>74791.658499585</v>
+        <v>74755.76151771779</v>
       </c>
       <c r="G6" t="n">
-        <v>74791.65849958779</v>
+        <v>74755.76151771149</v>
       </c>
       <c r="H6" t="n">
-        <v>74791.65849957538</v>
+        <v>74755.7615177183</v>
       </c>
       <c r="I6" t="n">
-        <v>74791.65849958187</v>
+        <v>74755.7615177183</v>
       </c>
       <c r="J6" t="n">
-        <v>-108251.1468745515</v>
+        <v>-108285.884799979</v>
       </c>
       <c r="K6" t="n">
-        <v>75417.86250467367</v>
+        <v>75383.12457923809</v>
       </c>
       <c r="L6" t="n">
-        <v>49084.11250715252</v>
+        <v>49084.11250715255</v>
       </c>
       <c r="M6" t="n">
-        <v>-55795.38088935304</v>
+        <v>-55795.38088935277</v>
       </c>
       <c r="N6" t="n">
-        <v>68511.83050078439</v>
+        <v>68511.83050078433</v>
       </c>
       <c r="O6" t="n">
-        <v>68511.83050078448</v>
+        <v>68511.83050078436</v>
       </c>
       <c r="P6" t="n">
         <v>68511.83050078439</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26744,19 +26744,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716373</v>
+        <v>1358.041048716393</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716393</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716393</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.297384499299</v>
+        <v>980.2973844992979</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.572044557469389e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.185452315956354e-12</v>
+        <v>8.640199666842818e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>8.412825991399586e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.934451625292013</v>
+        <v>9.934451625280644</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591159</v>
+        <v>673.8912089591165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>207.8463317613363</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>189.6261290801051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>71.89960204370449</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>134.416753351873</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.20896947947074</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>147.8252981211505</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>56.38259878544086</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>122.3285460967422</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>337.7922506064416</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>81.51686796751198</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>30.36167714588657</v>
+        <v>35.42890878728372</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.059107147259956e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.758651504979532e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.450898743215172e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.003997547551986e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.003997547551988e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377421</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122277</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704057</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874061</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830424</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364255</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293299</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229599</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086944</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687517</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148601</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987159</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854256</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665717</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901936</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540903</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088188</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>187.876017639653</v>
       </c>
       <c r="M12" t="n">
-        <v>688.4969704424166</v>
+        <v>740.1323715504294</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927631</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426198</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982449</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286949</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862155</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013752</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291841</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548565</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284919</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273331</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900883</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640615</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265019</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416871</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465959</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282421</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>205.064198356174</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851324</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704642</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377421</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122277</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704057</v>
       </c>
       <c r="J14" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874061</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830424</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364255</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293299</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229599</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086944</v>
       </c>
       <c r="P14" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687517</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148601</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987159</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854256</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665717</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901936</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540903</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088188</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735815</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684822</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396602</v>
+        <v>257.2899072204507</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504294</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927631</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982436</v>
+        <v>557.7961431982449</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286941</v>
+        <v>372.8719498286949</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862155</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013752</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291841</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548565</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284919</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273331</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900883</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640615</v>
       </c>
       <c r="M16" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265019</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416871</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465959</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282421</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561736</v>
+        <v>205.064198356174</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851324</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704642</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377376</v>
+        <v>5.459461502377455</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122232</v>
+        <v>55.91171011122313</v>
       </c>
       <c r="I17" t="n">
-        <v>210.475889570404</v>
+        <v>210.475889570407</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874023</v>
+        <v>463.364970687409</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830368</v>
+        <v>694.4639760830469</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364185</v>
+        <v>861.5439710364311</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293221</v>
+        <v>958.6336695293361</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229519</v>
+        <v>974.1453645229661</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086869</v>
+        <v>919.8578442087003</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687452</v>
+        <v>785.0773883687567</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148553</v>
+        <v>589.5604233148639</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987132</v>
+        <v>342.9428985987182</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854246</v>
+        <v>124.4074789854264</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665697</v>
+        <v>23.89879272665732</v>
       </c>
       <c r="U17" t="n">
-        <v>0.43675692019019</v>
+        <v>0.4367569201901964</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540879</v>
+        <v>2.921069425540921</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088165</v>
+        <v>28.21138103088206</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848181</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745667</v>
+        <v>187.8760176396324</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504234</v>
+        <v>740.1323715504342</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927568</v>
+        <v>759.721473092768</v>
       </c>
       <c r="O18" t="n">
-        <v>571.4938338238485</v>
+        <v>694.9967242426243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982484</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286973</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862111</v>
+        <v>54.2575834086219</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821082</v>
+        <v>11.77395965821099</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013737</v>
+        <v>0.1921756201013765</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.44892648129182</v>
+        <v>2.448926481291856</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548548</v>
+        <v>21.77318271548579</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284858</v>
+        <v>73.64589818284966</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273317</v>
+        <v>173.1391022273342</v>
       </c>
       <c r="K19" t="n">
-        <v>284.520731190086</v>
+        <v>284.5207311900901</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640585</v>
+        <v>364.0885788640638</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574264987</v>
+        <v>383.8803574265043</v>
       </c>
       <c r="N19" t="n">
-        <v>374.752540541684</v>
+        <v>374.7525405416895</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465931</v>
+        <v>346.1446266465981</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282397</v>
+        <v>296.186526428244</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561724</v>
+        <v>205.0641983561754</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860849</v>
+        <v>110.1126397860865</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851289</v>
+        <v>42.67810967851351</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551959</v>
+        <v>10.46359496551975</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704631</v>
+        <v>0.133577808070465</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.45946150237741</v>
+        <v>5.459461502377455</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122266</v>
+        <v>55.91171011122313</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704053</v>
+        <v>210.475889570407</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874051</v>
+        <v>463.364970687409</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083041</v>
+        <v>694.4639760830469</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364238</v>
+        <v>861.5439710364311</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529328</v>
+        <v>958.6336695293361</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229579</v>
+        <v>974.1453645229661</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086925</v>
+        <v>919.8578442087003</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687501</v>
+        <v>785.0773883687567</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148589</v>
+        <v>589.5604233148639</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987153</v>
+        <v>342.9428985987182</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854254</v>
+        <v>124.4074789854264</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665732</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901927</v>
+        <v>0.4367569201901964</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540897</v>
+        <v>2.921069425540921</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088206</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745706</v>
+        <v>187.8760176396324</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504279</v>
+        <v>740.1323715504342</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927616</v>
+        <v>759.721473092768</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426185</v>
+        <v>694.9967242426243</v>
       </c>
       <c r="P21" t="n">
-        <v>344.3187317060052</v>
+        <v>557.7961431982484</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286973</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086219</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821099</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013765</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291856</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548579</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284966</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273328</v>
+        <v>173.1391022273342</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900878</v>
+        <v>284.5207311900901</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640608</v>
+        <v>364.0885788640638</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265011</v>
+        <v>383.8803574265043</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416864</v>
+        <v>374.7525405416895</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465981</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282415</v>
+        <v>296.186526428244</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561754</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860865</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851316</v>
+        <v>42.67810967851351</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551975</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.133577808070465</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.45946150237741</v>
+        <v>5.459461502377455</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122266</v>
+        <v>55.91171011122313</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704053</v>
+        <v>210.475889570407</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874051</v>
+        <v>463.364970687409</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083041</v>
+        <v>694.4639760830469</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364238</v>
+        <v>861.5439710364311</v>
       </c>
       <c r="M23" t="n">
-        <v>958.633669529328</v>
+        <v>958.6336695293361</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229579</v>
+        <v>974.1453645229661</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086925</v>
+        <v>919.8578442087003</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687501</v>
+        <v>785.0773883687567</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148589</v>
+        <v>589.5604233148639</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987153</v>
+        <v>342.9428985987182</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854254</v>
+        <v>124.4074789854264</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665732</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901927</v>
+        <v>0.4367569201901964</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540897</v>
+        <v>2.921069425540921</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088206</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735833</v>
       </c>
       <c r="K24" t="n">
-        <v>471.688653684821</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745759</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504279</v>
+        <v>740.1323715504342</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927616</v>
+        <v>759.721473092768</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426243</v>
       </c>
       <c r="P24" t="n">
-        <v>180.8424455441303</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286941</v>
+        <v>201.1867228707554</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086219</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821099</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013765</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291856</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548579</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284966</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273328</v>
+        <v>173.1391022273342</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900878</v>
+        <v>284.5207311900901</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640608</v>
+        <v>364.0885788640638</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265011</v>
+        <v>383.8803574265043</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416864</v>
+        <v>374.7525405416895</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465981</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282415</v>
+        <v>296.186526428244</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561754</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860865</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851316</v>
+        <v>42.67810967851351</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551975</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.133577808070465</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34445,28 +34445,28 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M45" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35191,7 +35191,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607198</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380619</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664384</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020572</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263689</v>
       </c>
       <c r="O11" t="n">
-        <v>741.0722806161015</v>
+        <v>689.7596327870076</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134821</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404106</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136787</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>49.3216378597788</v>
       </c>
       <c r="M12" t="n">
-        <v>546.3629365203983</v>
+        <v>597.998337628411</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094298</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981754</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839146</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426734</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066035</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642055</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243777</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883424</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209157</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606356</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931356</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044797</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607198</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380619</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664384</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020552</v>
+        <v>779.6000841311525</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263689</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870076</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134821</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404106</v>
       </c>
       <c r="R14" t="n">
-        <v>178.6700086136952</v>
+        <v>127.3573607845838</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069148</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.847214710463</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785978599</v>
+        <v>118.7355274405765</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284094</v>
+        <v>597.998337628411</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094298</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981739</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839134</v>
+        <v>423.8217357839146</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426726</v>
+        <v>232.8901757426734</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066035</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642055</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243777</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883424</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209157</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606356</v>
       </c>
       <c r="P16" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931356</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044797</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.904254531837068e-12</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J17" t="n">
-        <v>282.319066160716</v>
+        <v>282.3190661607227</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380562</v>
+        <v>474.3741250380663</v>
       </c>
       <c r="L17" t="n">
-        <v>677.0902038955845</v>
+        <v>625.7775560664438</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020494</v>
+        <v>728.2874363020634</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263609</v>
+        <v>744.7323009263753</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870001</v>
+        <v>689.7596327870135</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134757</v>
+        <v>553.8443926134871</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404057</v>
+        <v>418.5673812694661</v>
       </c>
       <c r="R17" t="n">
-        <v>127.357360784581</v>
+        <v>127.357360784586</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104591</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946925</v>
+        <v>49.32163785975824</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284051</v>
+        <v>597.9983376284158</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094235</v>
+        <v>628.3797610094347</v>
       </c>
       <c r="O18" t="n">
-        <v>428.8975893794041</v>
+        <v>552.4004797981798</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.8217357839181</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211065893</v>
+        <v>79.77992211066146</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642031</v>
+        <v>262.2512393642073</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243747</v>
+        <v>391.6786041243799</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883393</v>
+        <v>423.4642343883449</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209126</v>
+        <v>418.8847129209181</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606328</v>
+        <v>370.7297545606378</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931332</v>
+        <v>293.4650856931375</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.902155104478</v>
+        <v>118.902155104481</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607227</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380604</v>
+        <v>474.3741250380663</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664438</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020553</v>
+        <v>728.2874363020634</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263671</v>
+        <v>744.7323009263753</v>
       </c>
       <c r="O20" t="n">
-        <v>741.0722806161175</v>
+        <v>689.7596327870135</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134871</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404094</v>
+        <v>367.2547334404144</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845831</v>
+        <v>178.6700086136373</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946964</v>
+        <v>49.32163785975824</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284097</v>
+        <v>597.9983376284158</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094283</v>
+        <v>628.3797610094347</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798174</v>
+        <v>552.4004797981798</v>
       </c>
       <c r="P21" t="n">
-        <v>210.3443242916749</v>
+        <v>423.8217357839181</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066001</v>
+        <v>79.77992211066146</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642049</v>
+        <v>262.2512393642073</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243799</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883417</v>
+        <v>423.4642343883449</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209181</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606349</v>
+        <v>370.7297545606378</v>
       </c>
       <c r="P22" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931375</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044793</v>
+        <v>118.902155104481</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607227</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380604</v>
+        <v>525.6867728671184</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664438</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020553</v>
+        <v>728.2874363020634</v>
       </c>
       <c r="N23" t="n">
-        <v>796.0449487554788</v>
+        <v>744.7323009263753</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870058</v>
+        <v>689.7596327870135</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134871</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404094</v>
+        <v>367.2547334404144</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845831</v>
+        <v>127.357360784586</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069166</v>
       </c>
       <c r="K24" t="n">
-        <v>333.847214710462</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946964</v>
+        <v>495.6892250947017</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284097</v>
+        <v>597.9983376284158</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094283</v>
+        <v>628.3797610094347</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>552.4004797981798</v>
       </c>
       <c r="P24" t="n">
-        <v>46.8680381298001</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426726</v>
+        <v>61.20494878473391</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066001</v>
+        <v>79.77992211066146</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642049</v>
+        <v>262.2512393642073</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243799</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883417</v>
+        <v>423.4642343883449</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209181</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606349</v>
+        <v>370.7297545606378</v>
       </c>
       <c r="P25" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931375</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044793</v>
+        <v>118.902155104481</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M45" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
